--- a/TITN.xlsx
+++ b/TITN.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32906c935fa0eb4f/models/TITN/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1206" documentId="11_F25DC773A252ABDACC104889191A52245ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C904AAE-F94B-44E9-8DB3-F35FCD6BEB19}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B5BBB4-3010-4A39-9C8B-242326B6349F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3460" yWindow="3810" windowWidth="18000" windowHeight="12750" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20330" yWindow="4290" windowWidth="16820" windowHeight="15370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
-    <sheet name="todo" sheetId="4" r:id="rId2"/>
-    <sheet name="M&amp;A" sheetId="5" r:id="rId3"/>
-    <sheet name="model" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
+    <sheet name="todo" sheetId="4" r:id="rId3"/>
+    <sheet name="M&amp;A" sheetId="5" r:id="rId4"/>
+    <sheet name="model" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -884,7 +885,7 @@
   <dimension ref="B2:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -981,11 +982,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E62E55-EE98-42B1-BA00-A4CA99681EFD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A532B8A9-72BD-4CFE-8449-3B24FC76CA39}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1015,7 +1030,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EA54E0-299A-42E8-83C7-403ECF34C403}">
   <dimension ref="B2:C3"/>
   <sheetViews>
@@ -1046,14 +1061,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49AC6758-3054-45BD-A746-0979BE500444}">
   <dimension ref="A1:Q133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection activeCell="A97" sqref="A97"/>
-      <selection pane="topRight" activeCell="N42" sqref="N1:N1048576"/>
+      <selection pane="topRight" activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1360,7 +1375,7 @@
         <v>1624010</v>
       </c>
       <c r="N14" s="2">
-        <f>SUM(F14:I14)</f>
+        <f t="shared" ref="N14:N38" si="2">SUM(F14:I14)</f>
         <v>1009699</v>
       </c>
     </row>
@@ -1378,7 +1393,7 @@
         <v>47364</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" ref="E15:E37" si="2">L15-D15-C15-B15</f>
+        <f t="shared" ref="E15:E37" si="3">L15-D15-C15-B15</f>
         <v>74621</v>
       </c>
       <c r="F15" s="2">
@@ -1398,11 +1413,11 @@
         <v>221140</v>
       </c>
       <c r="M15" s="2">
-        <f t="shared" ref="M15:M79" si="3">SUM(B15:E15)</f>
+        <f t="shared" ref="M15:M79" si="4">SUM(B15:E15)</f>
         <v>221140</v>
       </c>
       <c r="N15" s="2">
-        <f>SUM(F15:I15)</f>
+        <f t="shared" si="2"/>
         <v>153709</v>
       </c>
     </row>
@@ -1420,7 +1435,7 @@
         <v>65763</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>47510</v>
       </c>
       <c r="F16" s="2">
@@ -1440,11 +1455,11 @@
         <v>245423</v>
       </c>
       <c r="M16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>245423</v>
       </c>
       <c r="N16" s="2">
-        <f>SUM(F16:I16)</f>
+        <f t="shared" si="2"/>
         <v>138538</v>
       </c>
     </row>
@@ -1456,7 +1471,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>54743</v>
       </c>
       <c r="F17" s="2">
@@ -1476,11 +1491,11 @@
         <v>54743</v>
       </c>
       <c r="M17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>54743</v>
       </c>
       <c r="N17" s="2">
-        <f>SUM(F17:I17)</f>
+        <f t="shared" si="2"/>
         <v>126523</v>
       </c>
     </row>
@@ -1493,31 +1508,31 @@
         <v>429376</v>
       </c>
       <c r="C18" s="3">
-        <f t="shared" ref="C18:I18" si="4">SUM(C14:C17)</f>
+        <f t="shared" ref="C18:I18" si="5">SUM(C14:C17)</f>
         <v>480122</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>521775</v>
       </c>
       <c r="E18" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>714043</v>
       </c>
       <c r="F18" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>468089</v>
       </c>
       <c r="G18" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>465233</v>
       </c>
       <c r="H18" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>495147</v>
       </c>
       <c r="I18" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J18" s="8" t="s">
@@ -1528,11 +1543,11 @@
         <v>2145316</v>
       </c>
       <c r="M18" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2145316</v>
       </c>
       <c r="N18" s="3">
-        <f>SUM(F18:I18)</f>
+        <f t="shared" si="2"/>
         <v>1428469</v>
       </c>
     </row>
@@ -1550,7 +1565,7 @@
         <v>86173</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>55588</v>
       </c>
       <c r="F19" s="2">
@@ -1570,11 +1585,11 @@
         <v>293554</v>
       </c>
       <c r="M19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>293554</v>
       </c>
       <c r="N19" s="2">
-        <f>SUM(F19:I19)</f>
+        <f t="shared" si="2"/>
         <v>235158</v>
       </c>
     </row>
@@ -1592,7 +1607,7 @@
         <v>12943</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11875</v>
       </c>
       <c r="F20" s="2">
@@ -1612,11 +1627,11 @@
         <v>51019</v>
       </c>
       <c r="M20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>51019</v>
       </c>
       <c r="N20" s="2">
-        <f>SUM(F20:I20)</f>
+        <f t="shared" si="2"/>
         <v>36583</v>
       </c>
     </row>
@@ -1634,7 +1649,7 @@
         <v>15846</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11388</v>
       </c>
       <c r="F21" s="2">
@@ -1654,11 +1669,11 @@
         <v>54356</v>
       </c>
       <c r="M21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>54356</v>
       </c>
       <c r="N21" s="2">
-        <f>SUM(F21:I21)</f>
+        <f t="shared" si="2"/>
         <v>46221</v>
       </c>
     </row>
@@ -1670,7 +1685,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11912</v>
       </c>
       <c r="F22" s="2">
@@ -1690,11 +1705,11 @@
         <v>11912</v>
       </c>
       <c r="M22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11912</v>
       </c>
       <c r="N22" s="2">
-        <f>SUM(F22:I22)</f>
+        <f t="shared" si="2"/>
         <v>21155</v>
       </c>
     </row>
@@ -1707,46 +1722,46 @@
         <v>96606</v>
       </c>
       <c r="C23" s="3">
-        <f t="shared" ref="C23:I23" si="5">SUM(C19:C22)</f>
+        <f t="shared" ref="C23:I23" si="6">SUM(C19:C22)</f>
         <v>108510</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>114962</v>
       </c>
       <c r="E23" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>90763</v>
       </c>
       <c r="F23" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>108226</v>
       </c>
       <c r="G23" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>109805</v>
       </c>
       <c r="H23" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>121086</v>
       </c>
       <c r="I23" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J23" s="8" t="s">
         <v>150</v>
       </c>
       <c r="L23" s="3">
-        <f t="shared" ref="L23" si="6">SUM(L19:L22)</f>
+        <f t="shared" ref="L23" si="7">SUM(L19:L22)</f>
         <v>410841</v>
       </c>
       <c r="M23" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>410841</v>
       </c>
       <c r="N23" s="3">
-        <f>SUM(F23:I23)</f>
+        <f t="shared" si="2"/>
         <v>339117</v>
       </c>
     </row>
@@ -1764,7 +1779,7 @@
         <v>34718</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23577</v>
       </c>
       <c r="F24" s="2">
@@ -1784,11 +1799,11 @@
         <v>117087</v>
       </c>
       <c r="M24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>117087</v>
       </c>
       <c r="N24" s="2">
-        <f>SUM(F24:I24)</f>
+        <f t="shared" si="2"/>
         <v>104788</v>
       </c>
     </row>
@@ -1806,7 +1821,7 @@
         <v>7084</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6146</v>
       </c>
       <c r="F25" s="2">
@@ -1826,11 +1841,11 @@
         <v>26913</v>
       </c>
       <c r="M25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26913</v>
       </c>
       <c r="N25" s="2">
-        <f>SUM(F25:I25)</f>
+        <f t="shared" si="2"/>
         <v>21744</v>
       </c>
     </row>
@@ -1848,7 +1863,7 @@
         <v>2965</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2536</v>
       </c>
       <c r="F26" s="2">
@@ -1868,11 +1883,11 @@
         <v>10437</v>
       </c>
       <c r="M26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10437</v>
       </c>
       <c r="N26" s="2">
-        <f>SUM(F26:I26)</f>
+        <f t="shared" si="2"/>
         <v>9349</v>
       </c>
     </row>
@@ -1884,7 +1899,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2878</v>
       </c>
       <c r="F27" s="2">
@@ -1904,11 +1919,11 @@
         <v>2878</v>
       </c>
       <c r="M27" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2878</v>
       </c>
       <c r="N27" s="2">
-        <f>SUM(F27:I27)</f>
+        <f t="shared" si="2"/>
         <v>7588</v>
       </c>
     </row>
@@ -1921,46 +1936,46 @@
         <v>34933</v>
       </c>
       <c r="C28" s="3">
-        <f t="shared" ref="C28:I28" si="7">SUM(C24:C27)</f>
+        <f t="shared" ref="C28:I28" si="8">SUM(C24:C27)</f>
         <v>42478</v>
       </c>
       <c r="D28" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44767</v>
       </c>
       <c r="E28" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>35137</v>
       </c>
       <c r="F28" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>45079</v>
       </c>
       <c r="G28" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>47268</v>
       </c>
       <c r="H28" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>51122</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J28" s="8" t="s">
         <v>150</v>
       </c>
       <c r="L28" s="3">
-        <f t="shared" ref="L28" si="8">SUM(L24:L27)</f>
+        <f t="shared" ref="L28" si="9">SUM(L24:L27)</f>
         <v>157315</v>
       </c>
       <c r="M28" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>157315</v>
       </c>
       <c r="N28" s="3">
-        <f>SUM(F28:I28)</f>
+        <f t="shared" si="2"/>
         <v>143469</v>
       </c>
     </row>
@@ -1978,7 +1993,7 @@
         <v>1333</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1445</v>
       </c>
       <c r="F29" s="2">
@@ -1998,11 +2013,11 @@
         <v>5180</v>
       </c>
       <c r="M29" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5180</v>
       </c>
       <c r="N29" s="2">
-        <f>SUM(F29:I29)</f>
+        <f t="shared" si="2"/>
         <v>2931</v>
       </c>
     </row>
@@ -2020,7 +2035,7 @@
         <v>547</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>503</v>
       </c>
       <c r="F30" s="2">
@@ -2040,11 +2055,11 @@
         <v>1998</v>
       </c>
       <c r="M30" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1998</v>
       </c>
       <c r="N30" s="2">
-        <f>SUM(F30:I30)</f>
+        <f t="shared" si="2"/>
         <v>1326</v>
       </c>
     </row>
@@ -2062,7 +2077,7 @@
         <v>318</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-110</v>
       </c>
       <c r="F31" s="2">
@@ -2082,11 +2097,11 @@
         <v>760</v>
       </c>
       <c r="M31" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>760</v>
       </c>
       <c r="N31" s="2">
-        <f>SUM(F31:I31)</f>
+        <f t="shared" si="2"/>
         <v>547</v>
       </c>
     </row>
@@ -2098,7 +2113,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>276</v>
       </c>
       <c r="F32" s="2">
@@ -2118,11 +2133,11 @@
         <v>276</v>
       </c>
       <c r="M32" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>276</v>
       </c>
       <c r="N32" s="2">
-        <f>SUM(F32:I32)</f>
+        <f t="shared" si="2"/>
         <v>586</v>
       </c>
     </row>
@@ -2135,46 +2150,46 @@
         <v>1886</v>
       </c>
       <c r="C33" s="3">
-        <f t="shared" ref="C33:I33" si="9">SUM(C29:C32)</f>
+        <f t="shared" ref="C33:I33" si="10">SUM(C29:C32)</f>
         <v>2016</v>
       </c>
       <c r="D33" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2198</v>
       </c>
       <c r="E33" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2114</v>
       </c>
       <c r="F33" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1495</v>
       </c>
       <c r="G33" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2002</v>
       </c>
       <c r="H33" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1893</v>
       </c>
       <c r="I33" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>150</v>
       </c>
       <c r="L33" s="3">
-        <f t="shared" ref="L33" si="10">SUM(L29:L32)</f>
+        <f t="shared" ref="L33" si="11">SUM(L29:L32)</f>
         <v>8214</v>
       </c>
       <c r="M33" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8214</v>
       </c>
       <c r="N33" s="3">
-        <f>SUM(F33:I33)</f>
+        <f t="shared" si="2"/>
         <v>5390</v>
       </c>
     </row>
@@ -2192,7 +2207,7 @@
         <v>532</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2816</v>
       </c>
       <c r="F34" s="2">
@@ -2212,11 +2227,11 @@
         <v>4432</v>
       </c>
       <c r="M34" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4432</v>
       </c>
       <c r="N34" s="2">
-        <f>SUM(F34:I34)</f>
+        <f t="shared" si="2"/>
         <v>1169</v>
       </c>
     </row>
@@ -2234,7 +2249,7 @@
         <v>9570</v>
       </c>
       <c r="E35" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6951</v>
       </c>
       <c r="F35" s="2">
@@ -2254,11 +2269,11 @@
         <v>31393</v>
       </c>
       <c r="M35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31393</v>
       </c>
       <c r="N35" s="2">
-        <f>SUM(F35:I35)</f>
+        <f t="shared" si="2"/>
         <v>23606</v>
       </c>
     </row>
@@ -2276,7 +2291,7 @@
         <v>311</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>307</v>
       </c>
       <c r="F36" s="2">
@@ -2296,11 +2311,11 @@
         <v>934</v>
       </c>
       <c r="M36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>934</v>
       </c>
       <c r="N36" s="2">
-        <f>SUM(F36:I36)</f>
+        <f t="shared" si="2"/>
         <v>981</v>
       </c>
     </row>
@@ -2312,7 +2327,7 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F37" s="2">
@@ -2325,11 +2340,11 @@
       </c>
       <c r="L37" s="2"/>
       <c r="M37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N37" s="2">
-        <f>SUM(F37:I37)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2342,19 +2357,19 @@
         <v>6830</v>
       </c>
       <c r="C38" s="3">
-        <f t="shared" ref="C38:F38" si="11">SUM(C34:C37)</f>
+        <f t="shared" ref="C38:F38" si="12">SUM(C34:C37)</f>
         <v>9442</v>
       </c>
       <c r="D38" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10413</v>
       </c>
       <c r="E38" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10074</v>
       </c>
       <c r="F38" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5814</v>
       </c>
       <c r="G38" s="3">
@@ -2362,26 +2377,26 @@
         <v>9366</v>
       </c>
       <c r="H38" s="3">
-        <f t="shared" ref="H38:I38" si="12">SUM(H34:H37)</f>
+        <f t="shared" ref="H38:I38" si="13">SUM(H34:H37)</f>
         <v>10576</v>
       </c>
       <c r="I38" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J38" s="8" t="s">
         <v>150</v>
       </c>
       <c r="L38" s="3">
-        <f t="shared" ref="L38" si="13">SUM(L34:L37)</f>
+        <f t="shared" ref="L38" si="14">SUM(L34:L37)</f>
         <v>36759</v>
       </c>
       <c r="M38" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36759</v>
       </c>
       <c r="N38" s="3">
-        <f>SUM(F38:I38)</f>
+        <f t="shared" si="2"/>
         <v>25756</v>
       </c>
     </row>
@@ -2394,46 +2409,46 @@
         <v>569631</v>
       </c>
       <c r="C39" s="3">
-        <f t="shared" ref="C39:F39" si="14">C38+C33+C28+C23+C18</f>
+        <f t="shared" ref="C39:F39" si="15">C38+C33+C28+C23+C18</f>
         <v>642568</v>
       </c>
       <c r="D39" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>694115</v>
       </c>
       <c r="E39" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>852131</v>
       </c>
       <c r="F39" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>628703</v>
       </c>
       <c r="G39" s="3">
-        <f t="shared" ref="G39:N39" si="15">G38+G33+G28+G23+G18</f>
+        <f t="shared" ref="G39:N39" si="16">G38+G33+G28+G23+G18</f>
         <v>633674</v>
       </c>
       <c r="H39" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>679824</v>
       </c>
       <c r="I39" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J39" s="8" t="s">
         <v>150</v>
       </c>
       <c r="L39" s="3">
-        <f t="shared" ref="L39" si="16">L38+L33+L28+L23+L18</f>
+        <f t="shared" ref="L39" si="17">L38+L33+L28+L23+L18</f>
         <v>2758445</v>
       </c>
       <c r="M39" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2758445</v>
       </c>
       <c r="N39" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1942201</v>
       </c>
     </row>
@@ -2448,15 +2463,15 @@
         <v>Q123</v>
       </c>
       <c r="C41" s="1" t="str">
-        <f t="shared" ref="C41:E41" si="17">C2</f>
+        <f t="shared" ref="C41:E41" si="18">C2</f>
         <v>Q223</v>
       </c>
       <c r="D41" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Q323</v>
       </c>
       <c r="E41" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>Q423</v>
       </c>
       <c r="F41" s="1" t="str">
@@ -2464,26 +2479,26 @@
         <v>Q124</v>
       </c>
       <c r="G41" s="1" t="str">
-        <f t="shared" ref="G41:N41" si="18">G2</f>
+        <f t="shared" ref="G41:N41" si="19">G2</f>
         <v>Q224</v>
       </c>
       <c r="H41" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>Q324</v>
       </c>
       <c r="I41" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>Q424</v>
       </c>
       <c r="J41" s="8" t="s">
         <v>150</v>
       </c>
       <c r="M41" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2023</v>
       </c>
       <c r="N41" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2024</v>
       </c>
     </row>
@@ -2537,11 +2552,11 @@
         <v>2145316</v>
       </c>
       <c r="M44" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2145316</v>
       </c>
       <c r="N44" s="2">
-        <f>SUM(F44:I44)</f>
+        <f t="shared" ref="N44:N53" si="20">SUM(F44:I44)</f>
         <v>1428469</v>
       </c>
     </row>
@@ -2559,7 +2574,7 @@
         <v>114962</v>
       </c>
       <c r="E45" s="2">
-        <f t="shared" ref="E45:E47" si="19">L45-D45-C45-B45</f>
+        <f t="shared" ref="E45:E47" si="21">L45-D45-C45-B45</f>
         <v>90763</v>
       </c>
       <c r="F45" s="2">
@@ -2579,11 +2594,11 @@
         <v>410841</v>
       </c>
       <c r="M45" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>410841</v>
       </c>
       <c r="N45" s="2">
-        <f>SUM(F45:I45)</f>
+        <f t="shared" si="20"/>
         <v>339117</v>
       </c>
     </row>
@@ -2601,7 +2616,7 @@
         <v>44767</v>
       </c>
       <c r="E46" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>35137</v>
       </c>
       <c r="F46" s="2">
@@ -2621,11 +2636,11 @@
         <v>157315</v>
       </c>
       <c r="M46" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>157315</v>
       </c>
       <c r="N46" s="2">
-        <f>SUM(F46:I46)</f>
+        <f t="shared" si="20"/>
         <v>143469</v>
       </c>
     </row>
@@ -2643,7 +2658,7 @@
         <v>12611</v>
       </c>
       <c r="E47" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>12188</v>
       </c>
       <c r="F47" s="2">
@@ -2663,11 +2678,11 @@
         <v>44973</v>
       </c>
       <c r="M47" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44973</v>
       </c>
       <c r="N47" s="2">
-        <f>SUM(F47:I47)</f>
+        <f t="shared" si="20"/>
         <v>31146</v>
       </c>
     </row>
@@ -2680,31 +2695,31 @@
         <v>569631</v>
       </c>
       <c r="C48" s="3">
-        <f t="shared" ref="C48:I48" si="20">SUM(C44:C47)</f>
+        <f t="shared" ref="C48:I48" si="22">SUM(C44:C47)</f>
         <v>642568</v>
       </c>
       <c r="D48" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>694115</v>
       </c>
       <c r="E48" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>852131</v>
       </c>
       <c r="F48" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>628703</v>
       </c>
       <c r="G48" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>633674</v>
       </c>
       <c r="H48" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>679824</v>
       </c>
       <c r="I48" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J48" s="8" t="s">
@@ -2715,11 +2730,11 @@
         <v>2758445</v>
       </c>
       <c r="M48" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2758445</v>
       </c>
       <c r="N48" s="3">
-        <f>SUM(F48:I48)</f>
+        <f t="shared" si="20"/>
         <v>1942201</v>
       </c>
     </row>
@@ -2756,11 +2771,11 @@
         <v>1864558</v>
       </c>
       <c r="M49" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1864558</v>
       </c>
       <c r="N49" s="2">
-        <f>SUM(F49:I49)</f>
+        <f t="shared" si="20"/>
         <v>1292820</v>
       </c>
     </row>
@@ -2778,7 +2793,7 @@
         <v>78585</v>
       </c>
       <c r="E50" s="2">
-        <f t="shared" ref="E50:E52" si="21">L50-D50-C50-B50</f>
+        <f t="shared" ref="E50:E52" si="23">L50-D50-C50-B50</f>
         <v>63147</v>
       </c>
       <c r="F50" s="2">
@@ -2797,11 +2812,11 @@
         <v>279921</v>
       </c>
       <c r="M50" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>279921</v>
       </c>
       <c r="N50" s="2">
-        <f>SUM(F50:I50)</f>
+        <f t="shared" si="20"/>
         <v>230932</v>
       </c>
     </row>
@@ -2819,7 +2834,7 @@
         <v>14393</v>
       </c>
       <c r="E51" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>12971</v>
       </c>
       <c r="F51" s="2">
@@ -2838,11 +2853,11 @@
         <v>53981</v>
       </c>
       <c r="M51" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>53981</v>
       </c>
       <c r="N51" s="2">
-        <f>SUM(F51:I51)</f>
+        <f t="shared" si="20"/>
         <v>50753</v>
       </c>
     </row>
@@ -2860,7 +2875,7 @@
         <v>8198</v>
       </c>
       <c r="E52" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>8081</v>
       </c>
       <c r="F52" s="2">
@@ -2879,11 +2894,11 @@
         <v>28631</v>
       </c>
       <c r="M52" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28631</v>
       </c>
       <c r="N52" s="2">
-        <f>SUM(F52:I52)</f>
+        <f t="shared" si="20"/>
         <v>23068</v>
       </c>
     </row>
@@ -2896,31 +2911,31 @@
         <v>451051</v>
       </c>
       <c r="C53" s="3">
-        <f t="shared" ref="C53:I53" si="22">SUM(C49:C52)</f>
+        <f t="shared" ref="C53:I53" si="24">SUM(C49:C52)</f>
         <v>509169</v>
       </c>
       <c r="D53" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>555774</v>
       </c>
       <c r="E53" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>711097</v>
       </c>
       <c r="F53" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>506948</v>
       </c>
       <c r="G53" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>521295</v>
       </c>
       <c r="H53" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>569330</v>
       </c>
       <c r="I53" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J53" s="8" t="s">
@@ -2931,11 +2946,11 @@
         <v>2227091</v>
       </c>
       <c r="M53" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2227091</v>
       </c>
       <c r="N53" s="3">
-        <f>SUM(F53:I53)</f>
+        <f t="shared" si="20"/>
         <v>1597573</v>
       </c>
     </row>
@@ -2948,31 +2963,31 @@
         <v>61114</v>
       </c>
       <c r="C54" s="3">
-        <f t="shared" ref="C54:N54" si="23">C44-C49</f>
+        <f t="shared" ref="C54:N54" si="25">C44-C49</f>
         <v>65322</v>
       </c>
       <c r="D54" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>67177</v>
       </c>
       <c r="E54" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>87145</v>
       </c>
       <c r="F54" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>55850</v>
       </c>
       <c r="G54" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>42997</v>
       </c>
       <c r="H54" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>36802</v>
       </c>
       <c r="I54" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="J54" s="8" t="s">
@@ -2980,15 +2995,15 @@
       </c>
       <c r="K54" s="3"/>
       <c r="L54" s="3">
-        <f t="shared" ref="L54" si="24">L44-L49</f>
+        <f t="shared" ref="L54" si="26">L44-L49</f>
         <v>280758</v>
       </c>
       <c r="M54" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>280758</v>
       </c>
       <c r="N54" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>135649</v>
       </c>
     </row>
@@ -2997,35 +3012,35 @@
         <v>12</v>
       </c>
       <c r="B55" s="3">
-        <f t="shared" ref="B55:B57" si="25">B45-B50</f>
+        <f t="shared" ref="B55:B57" si="27">B45-B50</f>
         <v>31503</v>
       </c>
       <c r="C55" s="3">
-        <f t="shared" ref="C55:N55" si="26">C45-C50</f>
+        <f t="shared" ref="C55:N55" si="28">C45-C50</f>
         <v>35424</v>
       </c>
       <c r="D55" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>36377</v>
       </c>
       <c r="E55" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>27616</v>
       </c>
       <c r="F55" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>35075</v>
       </c>
       <c r="G55" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>35566</v>
       </c>
       <c r="H55" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>37544</v>
       </c>
       <c r="I55" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J55" s="8" t="s">
@@ -3033,15 +3048,15 @@
       </c>
       <c r="K55" s="3"/>
       <c r="L55" s="3">
-        <f t="shared" ref="L55" si="27">L45-L50</f>
+        <f t="shared" ref="L55" si="29">L45-L50</f>
         <v>130920</v>
       </c>
       <c r="M55" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>130920</v>
       </c>
       <c r="N55" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>108185</v>
       </c>
     </row>
@@ -3050,35 +3065,35 @@
         <v>13</v>
       </c>
       <c r="B56" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>22524</v>
       </c>
       <c r="C56" s="3">
-        <f t="shared" ref="C56:N56" si="28">C46-C51</f>
+        <f t="shared" ref="C56:N56" si="30">C46-C51</f>
         <v>28270</v>
       </c>
       <c r="D56" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>30374</v>
       </c>
       <c r="E56" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>22166</v>
       </c>
       <c r="F56" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>28303</v>
       </c>
       <c r="G56" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>31124</v>
       </c>
       <c r="H56" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>33289</v>
       </c>
       <c r="I56" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J56" s="8" t="s">
@@ -3086,15 +3101,15 @@
       </c>
       <c r="K56" s="3"/>
       <c r="L56" s="3">
-        <f t="shared" ref="L56" si="29">L46-L51</f>
+        <f t="shared" ref="L56" si="31">L46-L51</f>
         <v>103334</v>
       </c>
       <c r="M56" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>103334</v>
       </c>
       <c r="N56" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>92716</v>
       </c>
     </row>
@@ -3103,35 +3118,35 @@
         <v>14</v>
       </c>
       <c r="B57" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3439</v>
       </c>
       <c r="C57" s="3">
-        <f t="shared" ref="C57:N57" si="30">C47-C52</f>
+        <f t="shared" ref="C57:N57" si="32">C47-C52</f>
         <v>4383</v>
       </c>
       <c r="D57" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>4413</v>
       </c>
       <c r="E57" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>4107</v>
       </c>
       <c r="F57" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>2527</v>
       </c>
       <c r="G57" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>2692</v>
       </c>
       <c r="H57" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>2859</v>
       </c>
       <c r="I57" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J57" s="8" t="s">
@@ -3139,15 +3154,15 @@
       </c>
       <c r="K57" s="3"/>
       <c r="L57" s="3">
-        <f t="shared" ref="L57" si="31">L47-L52</f>
+        <f t="shared" ref="L57" si="33">L47-L52</f>
         <v>16342</v>
       </c>
       <c r="M57" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>16342</v>
       </c>
       <c r="N57" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>8078</v>
       </c>
     </row>
@@ -3160,42 +3175,42 @@
         <v>118580</v>
       </c>
       <c r="C58" s="3">
-        <f t="shared" ref="C58:I58" si="32">SUM(C54:C57)</f>
+        <f t="shared" ref="C58:I58" si="34">SUM(C54:C57)</f>
         <v>133399</v>
       </c>
       <c r="D58" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>138341</v>
       </c>
       <c r="E58" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>141034</v>
       </c>
       <c r="F58" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>121755</v>
       </c>
       <c r="G58" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>112379</v>
       </c>
       <c r="H58" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>110494</v>
       </c>
       <c r="I58" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J58" s="8" t="s">
         <v>150</v>
       </c>
       <c r="L58" s="3">
-        <f t="shared" ref="L58" si="33">SUM(L54:L57)</f>
+        <f t="shared" ref="L58" si="35">SUM(L54:L57)</f>
         <v>531354</v>
       </c>
       <c r="M58" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>531354</v>
       </c>
       <c r="N58" s="3">
@@ -3217,7 +3232,7 @@
         <v>92115</v>
       </c>
       <c r="E59" s="2">
-        <f t="shared" ref="E59" si="34">L59-D59-C59-B59</f>
+        <f t="shared" ref="E59" si="36">L59-D59-C59-B59</f>
         <v>100328</v>
       </c>
       <c r="F59" s="2">
@@ -3262,7 +3277,7 @@
         <v>150</v>
       </c>
       <c r="M60" s="2">
-        <f t="shared" ref="M60:M61" si="35">SUM(B60:E60)</f>
+        <f t="shared" ref="M60:M61" si="37">SUM(B60:E60)</f>
         <v>0</v>
       </c>
       <c r="N60" s="2">
@@ -3285,7 +3300,7 @@
         <v>150</v>
       </c>
       <c r="M61" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N61" s="2">
@@ -3302,31 +3317,31 @@
         <v>37265</v>
       </c>
       <c r="C62" s="3">
-        <f t="shared" ref="C62:N62" si="36">C58-C59-C60-C61</f>
+        <f t="shared" ref="C62:N62" si="38">C58-C59-C60-C61</f>
         <v>44648</v>
       </c>
       <c r="D62" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>46226</v>
       </c>
       <c r="E62" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>40706</v>
       </c>
       <c r="F62" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>22597</v>
       </c>
       <c r="G62" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>15750</v>
       </c>
       <c r="H62" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>11457</v>
       </c>
       <c r="I62" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="J62" s="8" t="s">
@@ -3334,15 +3349,15 @@
       </c>
       <c r="K62" s="3"/>
       <c r="L62" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>168845</v>
       </c>
       <c r="M62" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>168845</v>
       </c>
       <c r="N62" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>49804</v>
       </c>
     </row>
@@ -3360,7 +3375,7 @@
         <v>-235</v>
       </c>
       <c r="E63" s="2">
-        <f t="shared" ref="E63:E67" si="37">L63-D63-C63-B63</f>
+        <f t="shared" ref="E63:E67" si="39">L63-D63-C63-B63</f>
         <v>2174</v>
       </c>
       <c r="F63" s="2">
@@ -3381,11 +3396,11 @@
         <v>3300</v>
       </c>
       <c r="M63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3300</v>
       </c>
       <c r="N63" s="2">
-        <f>SUM(F63:I63)</f>
+        <f t="shared" ref="N63:N68" si="40">SUM(F63:I63)</f>
         <v>-4239</v>
       </c>
       <c r="O63" s="2"/>
@@ -3406,7 +3421,7 @@
         <v>-4045</v>
       </c>
       <c r="E64" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-6028</v>
       </c>
       <c r="F64" s="2">
@@ -3427,11 +3442,11 @@
         <v>-13802</v>
       </c>
       <c r="M64" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-13802</v>
       </c>
       <c r="N64" s="2">
-        <f>SUM(F64:I64)</f>
+        <f t="shared" si="40"/>
         <v>-26275</v>
       </c>
       <c r="O64" s="2"/>
@@ -3452,7 +3467,7 @@
         <v>-1494</v>
       </c>
       <c r="E65" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-3294</v>
       </c>
       <c r="F65" s="2">
@@ -3473,11 +3488,11 @@
         <v>-7303</v>
       </c>
       <c r="M65" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-7303</v>
       </c>
       <c r="N65" s="2">
-        <f>SUM(F65:I65)</f>
+        <f t="shared" si="40"/>
         <v>-10479</v>
       </c>
       <c r="O65" s="2"/>
@@ -3493,46 +3508,46 @@
         <v>35439</v>
       </c>
       <c r="C66" s="3">
-        <f t="shared" ref="C66:L66" si="38">C62+SUM(C63:C65)</f>
+        <f t="shared" ref="C66:L66" si="41">C62+SUM(C63:C65)</f>
         <v>41591</v>
       </c>
       <c r="D66" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>40452</v>
       </c>
       <c r="E66" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>33558</v>
       </c>
       <c r="F66" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>12786</v>
       </c>
       <c r="G66" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>-4250</v>
       </c>
       <c r="H66" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>275</v>
       </c>
       <c r="I66" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="J66" s="8" t="s">
         <v>150</v>
       </c>
       <c r="L66" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>151040</v>
       </c>
       <c r="M66" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>151040</v>
       </c>
       <c r="N66" s="3">
-        <f>SUM(F66:I66)</f>
+        <f t="shared" si="40"/>
         <v>8811</v>
       </c>
     </row>
@@ -3550,7 +3565,7 @@
         <v>10259</v>
       </c>
       <c r="E67" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>9596</v>
       </c>
       <c r="F67" s="2">
@@ -3569,11 +3584,11 @@
         <v>38599</v>
       </c>
       <c r="M67" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>38599</v>
       </c>
       <c r="N67" s="2">
-        <f>SUM(F67:I67)</f>
+        <f t="shared" si="40"/>
         <v>1961</v>
       </c>
     </row>
@@ -3586,46 +3601,46 @@
         <v>26965</v>
       </c>
       <c r="C68" s="3">
-        <f t="shared" ref="C68:L68" si="39">C66-C67</f>
+        <f t="shared" ref="C68:L68" si="42">C66-C67</f>
         <v>31321</v>
       </c>
       <c r="D68" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>30193</v>
       </c>
       <c r="E68" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>23962</v>
       </c>
       <c r="F68" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>9441</v>
       </c>
       <c r="G68" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-4304</v>
       </c>
       <c r="H68" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1713</v>
       </c>
       <c r="I68" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="J68" s="8" t="s">
         <v>150</v>
       </c>
       <c r="L68" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>112441</v>
       </c>
       <c r="M68" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>112441</v>
       </c>
       <c r="N68" s="3">
-        <f>SUM(F68:I68)</f>
+        <f t="shared" si="40"/>
         <v>6850</v>
       </c>
     </row>
@@ -3650,38 +3665,38 @@
         <v>1.2015952943273474</v>
       </c>
       <c r="C70" s="5">
-        <f t="shared" ref="C70:F70" si="40">C68/C73</f>
+        <f t="shared" ref="C70:F70" si="43">C68/C73</f>
         <v>1.3935308773803168</v>
       </c>
       <c r="D70" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>1.3411958066808813</v>
       </c>
       <c r="E70" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>1.0653092073089405</v>
       </c>
       <c r="F70" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0.41881820601543784</v>
       </c>
       <c r="G70" s="5">
-        <f t="shared" ref="G70:I70" si="41">G68/G73</f>
+        <f t="shared" ref="G70:I70" si="44">G68/G73</f>
         <v>-0.19029933236061369</v>
       </c>
       <c r="H70" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>7.569263399761389E-2</v>
       </c>
       <c r="I70" s="5" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J70" s="8" t="s">
         <v>150</v>
       </c>
       <c r="M70" s="5">
-        <f t="shared" ref="M70" si="42">M68/M73</f>
+        <f t="shared" ref="M70" si="45">M68/M73</f>
         <v>4.998933001378207</v>
       </c>
       <c r="N70" s="5" t="e">
@@ -3698,38 +3713,38 @@
         <v>1.201220598717035</v>
       </c>
       <c r="C71" s="5">
-        <f t="shared" ref="C71:F71" si="43">C68/C74</f>
+        <f t="shared" ref="C71:F71" si="46">C68/C74</f>
         <v>1.3930350471446362</v>
       </c>
       <c r="D71" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>1.3408979881867034</v>
       </c>
       <c r="E71" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>1.0650251122272101</v>
       </c>
       <c r="F71" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>0.41874390135722522</v>
       </c>
       <c r="G71" s="5">
-        <f t="shared" ref="G71:I71" si="44">G68/G74</f>
+        <f t="shared" ref="G71:I71" si="47">G68/G74</f>
         <v>-0.19029933236061369</v>
       </c>
       <c r="H71" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>7.569263399761389E-2</v>
       </c>
       <c r="I71" s="5" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J71" s="8" t="s">
         <v>150</v>
       </c>
       <c r="M71" s="5">
-        <f t="shared" ref="M71" si="45">M68/M74</f>
+        <f t="shared" ref="M71" si="48">M68/M74</f>
         <v>4.9975998933285926</v>
       </c>
       <c r="N71" s="5" t="e">
@@ -3831,42 +3846,42 @@
         <v>Q123</v>
       </c>
       <c r="C76" s="1" t="str">
-        <f t="shared" ref="C76:N76" si="46">C41</f>
+        <f t="shared" ref="C76:N76" si="49">C41</f>
         <v>Q223</v>
       </c>
       <c r="D76" s="1" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>Q323</v>
       </c>
       <c r="E76" s="1" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>Q423</v>
       </c>
       <c r="F76" s="1" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>Q124</v>
       </c>
       <c r="G76" s="1" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>Q224</v>
       </c>
       <c r="H76" s="1" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>Q324</v>
       </c>
       <c r="I76" s="1" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>Q424</v>
       </c>
       <c r="J76" s="8" t="s">
         <v>150</v>
       </c>
       <c r="M76" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>2023</v>
       </c>
       <c r="N76" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>2024</v>
       </c>
     </row>
@@ -3894,7 +3909,7 @@
         <v>30192</v>
       </c>
       <c r="E78" s="2">
-        <f t="shared" ref="E78:E94" si="47">L78-D78-C78-B78</f>
+        <f t="shared" ref="E78:E94" si="50">L78-D78-C78-B78</f>
         <v>23962</v>
       </c>
       <c r="F78" s="2">
@@ -3915,11 +3930,11 @@
         <v>112441</v>
       </c>
       <c r="M78" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>112441</v>
       </c>
       <c r="N78" s="2">
-        <f>SUM(F78:I78)</f>
+        <f t="shared" ref="N78:N83" si="51">SUM(F78:I78)</f>
         <v>6850</v>
       </c>
     </row>
@@ -3939,7 +3954,7 @@
         <v>8234</v>
       </c>
       <c r="E79" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>8608</v>
       </c>
       <c r="F79" s="2">
@@ -3960,11 +3975,11 @@
         <v>31479</v>
       </c>
       <c r="M79" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31479</v>
       </c>
       <c r="N79" s="2">
-        <f>SUM(F79:I79)</f>
+        <f t="shared" si="51"/>
         <v>28687</v>
       </c>
     </row>
@@ -3983,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="E80" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="F80" s="2"/>
@@ -4002,11 +4017,11 @@
         <v>0</v>
       </c>
       <c r="M80" s="2">
-        <f t="shared" ref="M80:M130" si="48">SUM(B80:E80)</f>
+        <f t="shared" ref="M80:M130" si="52">SUM(B80:E80)</f>
         <v>0</v>
       </c>
       <c r="N80" s="2">
-        <f>SUM(F80:I80)</f>
+        <f t="shared" si="51"/>
         <v>1737</v>
       </c>
     </row>
@@ -4026,7 +4041,7 @@
         <v>-1236</v>
       </c>
       <c r="E81" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>6641</v>
       </c>
       <c r="F81" s="2">
@@ -4047,11 +4062,11 @@
         <v>2910</v>
       </c>
       <c r="M81" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>2910</v>
       </c>
       <c r="N81" s="2">
-        <f>SUM(F81:I81)</f>
+        <f t="shared" si="51"/>
         <v>-3003</v>
       </c>
     </row>
@@ -4071,7 +4086,7 @@
         <v>896</v>
       </c>
       <c r="E82" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>781</v>
       </c>
       <c r="F82" s="2">
@@ -4092,11 +4107,11 @@
         <v>3120</v>
       </c>
       <c r="M82" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>3120</v>
       </c>
       <c r="N82" s="2">
-        <f>SUM(F82:I82)</f>
+        <f t="shared" si="51"/>
         <v>3203</v>
       </c>
     </row>
@@ -4116,7 +4131,7 @@
         <v>77</v>
       </c>
       <c r="E83" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>86</v>
       </c>
       <c r="F83" s="2">
@@ -4137,11 +4152,11 @@
         <v>292</v>
       </c>
       <c r="M83" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>292</v>
       </c>
       <c r="N83" s="2">
-        <f>SUM(F83:I83)</f>
+        <f t="shared" si="51"/>
         <v>537</v>
       </c>
     </row>
@@ -4153,7 +4168,7 @@
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>-1349</v>
       </c>
       <c r="F84" s="2"/>
@@ -4179,7 +4194,7 @@
         <v>7004</v>
       </c>
       <c r="E85" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="F85" s="2"/>
@@ -4195,11 +4210,11 @@
         <v>7004</v>
       </c>
       <c r="M85" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>7004</v>
       </c>
       <c r="N85" s="2">
-        <f>SUM(F85:I85)</f>
+        <f t="shared" ref="N85:N95" si="53">SUM(F85:I85)</f>
         <v>6532</v>
       </c>
     </row>
@@ -4218,7 +4233,7 @@
         <v>0</v>
       </c>
       <c r="E86" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="F86" s="2"/>
@@ -4237,11 +4252,11 @@
         <v>0</v>
       </c>
       <c r="M86" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="N86" s="2">
-        <f>SUM(F86:I86)</f>
+        <f t="shared" si="53"/>
         <v>11159</v>
       </c>
     </row>
@@ -4260,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="E87" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="F87" s="2"/>
@@ -4279,11 +4294,11 @@
         <v>0</v>
       </c>
       <c r="M87" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="N87" s="2">
-        <f>SUM(F87:I87)</f>
+        <f t="shared" si="53"/>
         <v>-3585</v>
       </c>
     </row>
@@ -4303,7 +4318,7 @@
         <v>-4626</v>
       </c>
       <c r="E88" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>2340</v>
       </c>
       <c r="F88" s="2">
@@ -4325,11 +4340,11 @@
         <v>964</v>
       </c>
       <c r="M88" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>964</v>
       </c>
       <c r="N88" s="2">
-        <f>SUM(F88:I88)</f>
+        <f t="shared" si="53"/>
         <v>-1255</v>
       </c>
     </row>
@@ -4349,7 +4364,7 @@
         <v>-11324</v>
       </c>
       <c r="E89" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>-16144</v>
       </c>
       <c r="F89" s="2">
@@ -4370,11 +4385,11 @@
         <v>-48091</v>
       </c>
       <c r="M89" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>-48091</v>
       </c>
       <c r="N89" s="2">
-        <f>SUM(F89:I89)</f>
+        <f t="shared" si="53"/>
         <v>12541</v>
       </c>
     </row>
@@ -4394,7 +4409,7 @@
         <v>-1766</v>
       </c>
       <c r="E90" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>-5159</v>
       </c>
       <c r="F90" s="2">
@@ -4415,11 +4430,11 @@
         <v>615</v>
       </c>
       <c r="M90" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>615</v>
       </c>
       <c r="N90" s="2">
-        <f>SUM(F90:I90)</f>
+        <f t="shared" si="53"/>
         <v>9124</v>
       </c>
     </row>
@@ -4439,7 +4454,7 @@
         <v>-95716</v>
       </c>
       <c r="E91" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>-117552</v>
       </c>
       <c r="F91" s="2">
@@ -4460,11 +4475,11 @@
         <v>-476389</v>
       </c>
       <c r="M91" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>-476389</v>
       </c>
       <c r="N91" s="2">
-        <f>SUM(F91:I91)</f>
+        <f t="shared" si="53"/>
         <v>-114485</v>
       </c>
     </row>
@@ -4484,7 +4499,7 @@
         <v>124062</v>
       </c>
       <c r="E92" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>93143</v>
       </c>
       <c r="F92" s="2">
@@ -4505,11 +4520,11 @@
         <v>368111</v>
       </c>
       <c r="M92" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>368111</v>
       </c>
       <c r="N92" s="2">
-        <f>SUM(F92:I92)</f>
+        <f t="shared" si="53"/>
         <v>78714</v>
       </c>
     </row>
@@ -4529,7 +4544,7 @@
         <v>-18943</v>
       </c>
       <c r="E93" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>61883</v>
       </c>
       <c r="F93" s="2">
@@ -4550,11 +4565,11 @@
         <v>-15542</v>
       </c>
       <c r="M93" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>-15542</v>
       </c>
       <c r="N93" s="2">
-        <f>SUM(F93:I93)</f>
+        <f t="shared" si="53"/>
         <v>-76838</v>
       </c>
     </row>
@@ -4574,7 +4589,7 @@
         <v>3780</v>
       </c>
       <c r="E94" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>-7459</v>
       </c>
       <c r="F94" s="2">
@@ -4595,11 +4610,11 @@
         <v>-17845</v>
       </c>
       <c r="M94" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>-17845</v>
       </c>
       <c r="N94" s="2">
-        <f>SUM(F94:I94)</f>
+        <f t="shared" si="53"/>
         <v>-16113</v>
       </c>
     </row>
@@ -4612,46 +4627,46 @@
         <v>-77704</v>
       </c>
       <c r="C95" s="3">
-        <f t="shared" ref="C95:L95" si="49">SUM(C78:C94)</f>
+        <f t="shared" ref="C95:L95" si="54">SUM(C78:C94)</f>
         <v>-44991</v>
       </c>
       <c r="D95" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>40634</v>
       </c>
       <c r="E95" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>49781</v>
       </c>
       <c r="F95" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>-32354</v>
       </c>
       <c r="G95" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>-15013</v>
       </c>
       <c r="H95" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>-8828</v>
       </c>
       <c r="I95" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="J95" s="8" t="s">
         <v>150</v>
       </c>
       <c r="L95" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>-32280</v>
       </c>
       <c r="M95" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>-32280</v>
       </c>
       <c r="N95" s="3">
-        <f>SUM(F95:I95)</f>
+        <f t="shared" si="53"/>
         <v>-56195</v>
       </c>
     </row>
@@ -4673,42 +4688,42 @@
         <v>Q123</v>
       </c>
       <c r="C97" s="1" t="str">
-        <f t="shared" ref="C97:N97" si="50">C76</f>
+        <f t="shared" ref="C97:N97" si="55">C76</f>
         <v>Q223</v>
       </c>
       <c r="D97" s="1" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>Q323</v>
       </c>
       <c r="E97" s="1" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>Q423</v>
       </c>
       <c r="F97" s="1" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>Q124</v>
       </c>
       <c r="G97" s="1" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>Q224</v>
       </c>
       <c r="H97" s="1" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>Q324</v>
       </c>
       <c r="I97" s="1" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>Q424</v>
       </c>
       <c r="J97" s="8" t="s">
         <v>150</v>
       </c>
       <c r="M97" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>2023</v>
       </c>
       <c r="N97" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>2024</v>
       </c>
     </row>
@@ -4761,7 +4776,7 @@
         <v>38066</v>
       </c>
       <c r="N99" s="2">
-        <f>SUM(F99:I99)</f>
+        <f t="shared" ref="N99:N117" si="56">SUM(F99:I99)</f>
         <v>90323</v>
       </c>
     </row>
@@ -4795,11 +4810,11 @@
         <v>150</v>
       </c>
       <c r="M100" s="2">
-        <f t="shared" ref="M100:M102" si="51">E100</f>
+        <f t="shared" ref="M100:M102" si="57">E100</f>
         <v>153657</v>
       </c>
       <c r="N100" s="2">
-        <f>SUM(F100:I100)</f>
+        <f t="shared" si="56"/>
         <v>406213</v>
       </c>
     </row>
@@ -4833,11 +4848,11 @@
         <v>150</v>
       </c>
       <c r="M101" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>1303030</v>
       </c>
       <c r="N101" s="2">
-        <f>SUM(F101:I101)</f>
+        <f t="shared" si="56"/>
         <v>4370608</v>
       </c>
     </row>
@@ -4871,11 +4886,11 @@
         <v>150</v>
       </c>
       <c r="M102" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>24262</v>
       </c>
       <c r="N102" s="2">
-        <f>SUM(F102:I102)</f>
+        <f t="shared" si="56"/>
         <v>53544</v>
       </c>
     </row>
@@ -4888,11 +4903,11 @@
         <v>1043587</v>
       </c>
       <c r="C103" s="3">
-        <f t="shared" ref="C103:I103" si="52">SUM(C99:C102)</f>
+        <f t="shared" ref="C103:I103" si="58">SUM(C99:C102)</f>
         <v>1165488</v>
       </c>
       <c r="D103" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>1285548</v>
       </c>
       <c r="E103" s="3">
@@ -4900,30 +4915,30 @@
         <v>1519015</v>
       </c>
       <c r="F103" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>1614889</v>
       </c>
       <c r="G103" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>1709100</v>
       </c>
       <c r="H103" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>1596699</v>
       </c>
       <c r="I103" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="J103" s="8" t="s">
         <v>150</v>
       </c>
       <c r="M103" s="3">
-        <f t="shared" ref="M103" si="53">SUM(M99:M102)</f>
+        <f t="shared" ref="M103" si="59">SUM(M99:M102)</f>
         <v>1519015</v>
       </c>
       <c r="N103" s="3">
-        <f>SUM(F103:I103)</f>
+        <f t="shared" si="56"/>
         <v>4920688</v>
       </c>
     </row>
@@ -4957,11 +4972,11 @@
         <v>150</v>
       </c>
       <c r="M104" s="2">
-        <f t="shared" ref="M104:M109" si="54">E104</f>
+        <f t="shared" ref="M104:M109" si="60">E104</f>
         <v>298774</v>
       </c>
       <c r="N104" s="2">
-        <f>SUM(F104:I104)</f>
+        <f t="shared" si="56"/>
         <v>1018874</v>
       </c>
     </row>
@@ -4995,11 +5010,11 @@
         <v>150</v>
       </c>
       <c r="M105" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>54699</v>
       </c>
       <c r="N105" s="2">
-        <f>SUM(F105:I105)</f>
+        <f t="shared" si="56"/>
         <v>127021</v>
       </c>
     </row>
@@ -5033,11 +5048,11 @@
         <v>150</v>
       </c>
       <c r="M106" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>529</v>
       </c>
       <c r="N106" s="2">
-        <f>SUM(F106:I106)</f>
+        <f t="shared" si="56"/>
         <v>1564</v>
       </c>
     </row>
@@ -5071,11 +5086,11 @@
         <v>150</v>
       </c>
       <c r="M107" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>64105</v>
       </c>
       <c r="N107" s="2">
-        <f>SUM(F107:I107)</f>
+        <f t="shared" si="56"/>
         <v>189773</v>
       </c>
     </row>
@@ -5109,11 +5124,11 @@
         <v>150</v>
       </c>
       <c r="M108" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>53356</v>
       </c>
       <c r="N108" s="2">
-        <f>SUM(F108:I108)</f>
+        <f t="shared" si="56"/>
         <v>154742</v>
       </c>
     </row>
@@ -5147,11 +5162,11 @@
         <v>150</v>
       </c>
       <c r="M109" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>1783</v>
       </c>
       <c r="N109" s="2">
-        <f>SUM(F109:I109)</f>
+        <f t="shared" si="56"/>
         <v>4957</v>
       </c>
     </row>
@@ -5164,42 +5179,42 @@
         <v>334518</v>
       </c>
       <c r="C110" s="3">
-        <f t="shared" ref="C110:F110" si="55">SUM(C104:C109)</f>
+        <f t="shared" ref="C110:F110" si="61">SUM(C104:C109)</f>
         <v>351528</v>
       </c>
       <c r="D110" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>364190</v>
       </c>
       <c r="E110" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>473246</v>
       </c>
       <c r="F110" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>472778</v>
       </c>
       <c r="G110" s="3">
-        <f t="shared" ref="G110:I110" si="56">SUM(G104:G109)</f>
+        <f t="shared" ref="G110:I110" si="62">SUM(G104:G109)</f>
         <v>511449</v>
       </c>
       <c r="H110" s="3">
+        <f t="shared" si="62"/>
+        <v>512704</v>
+      </c>
+      <c r="I110" s="3">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="J110" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="M110" s="3">
+        <f t="shared" ref="M110" si="63">SUM(M104:M109)</f>
+        <v>473246</v>
+      </c>
+      <c r="N110" s="3">
         <f t="shared" si="56"/>
-        <v>512704</v>
-      </c>
-      <c r="I110" s="3">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="J110" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="M110" s="3">
-        <f t="shared" ref="M110" si="57">SUM(M104:M109)</f>
-        <v>473246</v>
-      </c>
-      <c r="N110" s="3">
-        <f>SUM(F110:I110)</f>
         <v>1496931</v>
       </c>
     </row>
@@ -5212,15 +5227,15 @@
         <v>1378105</v>
       </c>
       <c r="C111" s="3">
-        <f t="shared" ref="C111:E111" si="58">C103+C110</f>
+        <f t="shared" ref="C111:E111" si="64">C103+C110</f>
         <v>1517016</v>
       </c>
       <c r="D111" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>1649738</v>
       </c>
       <c r="E111" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>1992261</v>
       </c>
       <c r="F111" s="3">
@@ -5228,26 +5243,26 @@
         <v>2087667</v>
       </c>
       <c r="G111" s="3">
-        <f t="shared" ref="G111:I111" si="59">G103+G110</f>
+        <f t="shared" ref="G111:I111" si="65">G103+G110</f>
         <v>2220549</v>
       </c>
       <c r="H111" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>2109403</v>
       </c>
       <c r="I111" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="J111" s="8" t="s">
         <v>150</v>
       </c>
       <c r="M111" s="3">
-        <f t="shared" ref="M111" si="60">M103+M110</f>
+        <f t="shared" ref="M111" si="66">M103+M110</f>
         <v>1992261</v>
       </c>
       <c r="N111" s="3">
-        <f>SUM(F111:I111)</f>
+        <f t="shared" si="56"/>
         <v>6417619</v>
       </c>
     </row>
@@ -5281,11 +5296,11 @@
         <v>150</v>
       </c>
       <c r="M112" s="2">
-        <f t="shared" ref="M112:M118" si="61">E112</f>
+        <f t="shared" ref="M112:M118" si="67">E112</f>
         <v>43846</v>
       </c>
       <c r="N112" s="2">
-        <f>SUM(F112:I112)</f>
+        <f t="shared" si="56"/>
         <v>132752</v>
       </c>
     </row>
@@ -5319,11 +5334,11 @@
         <v>150</v>
       </c>
       <c r="M113" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>893846</v>
       </c>
       <c r="N113" s="2">
-        <f>SUM(F113:I113)</f>
+        <f t="shared" si="56"/>
         <v>3241660</v>
       </c>
     </row>
@@ -5357,11 +5372,11 @@
         <v>150</v>
       </c>
       <c r="M114" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>13706</v>
       </c>
       <c r="N114" s="2">
-        <f>SUM(F114:I114)</f>
+        <f t="shared" si="56"/>
         <v>33330</v>
       </c>
     </row>
@@ -5395,11 +5410,11 @@
         <v>150</v>
       </c>
       <c r="M115" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>10751</v>
       </c>
       <c r="N115" s="2">
-        <f>SUM(F115:I115)</f>
+        <f t="shared" si="56"/>
         <v>27008</v>
       </c>
     </row>
@@ -5433,11 +5448,11 @@
         <v>150</v>
       </c>
       <c r="M116" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>115852</v>
       </c>
       <c r="N116" s="2">
-        <f>SUM(F116:I116)</f>
+        <f t="shared" si="56"/>
         <v>184681</v>
       </c>
     </row>
@@ -5471,11 +5486,11 @@
         <v>150</v>
       </c>
       <c r="M117" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>74400</v>
       </c>
       <c r="N117" s="2">
-        <f>SUM(F117:I117)</f>
+        <f t="shared" si="56"/>
         <v>183754</v>
       </c>
     </row>
@@ -5501,7 +5516,7 @@
         <v>150</v>
       </c>
       <c r="M118" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="N118" s="2"/>
@@ -5511,35 +5526,35 @@
         <v>88</v>
       </c>
       <c r="B119" s="3">
-        <f t="shared" ref="B119:I119" si="62">SUM(B112:B118)</f>
+        <f t="shared" ref="B119:I119" si="68">SUM(B112:B118)</f>
         <v>660239</v>
       </c>
       <c r="C119" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>778002</v>
       </c>
       <c r="D119" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>885404</v>
       </c>
       <c r="E119" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>1152401</v>
       </c>
       <c r="F119" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>1247738</v>
       </c>
       <c r="G119" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>1343420</v>
       </c>
       <c r="H119" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>1212027</v>
       </c>
       <c r="I119" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="J119" s="8" t="s">
@@ -5584,11 +5599,11 @@
         <v>150</v>
       </c>
       <c r="M120" s="2">
-        <f t="shared" ref="M120:M123" si="63">E120</f>
+        <f t="shared" ref="M120:M123" si="69">E120</f>
         <v>106407</v>
       </c>
       <c r="N120" s="2">
-        <f>SUM(F120:I120)</f>
+        <f t="shared" ref="N120:N130" si="70">SUM(F120:I120)</f>
         <v>353240</v>
       </c>
     </row>
@@ -5622,11 +5637,11 @@
         <v>150</v>
       </c>
       <c r="M121" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>50964</v>
       </c>
       <c r="N121" s="2">
-        <f>SUM(F121:I121)</f>
+        <f t="shared" si="70"/>
         <v>117922</v>
       </c>
     </row>
@@ -5660,11 +5675,11 @@
         <v>150</v>
       </c>
       <c r="M122" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>22607</v>
       </c>
       <c r="N122" s="2">
-        <f>SUM(F122:I122)</f>
+        <f t="shared" si="70"/>
         <v>63103</v>
       </c>
     </row>
@@ -5698,11 +5713,11 @@
         <v>150</v>
       </c>
       <c r="M123" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>2240</v>
       </c>
       <c r="N123" s="2">
-        <f>SUM(F123:I123)</f>
+        <f t="shared" si="70"/>
         <v>89802</v>
       </c>
     </row>
@@ -5715,42 +5730,42 @@
         <v>153833</v>
       </c>
       <c r="C124" s="3">
-        <f t="shared" ref="C124:F124" si="64">SUM(C120:C123)</f>
+        <f t="shared" ref="C124:F124" si="71">SUM(C120:C123)</f>
         <v>142332</v>
       </c>
       <c r="D124" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>138501</v>
       </c>
       <c r="E124" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>182218</v>
       </c>
       <c r="F124" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>177328</v>
       </c>
       <c r="G124" s="3">
-        <f t="shared" ref="G124:I124" si="65">SUM(G120:G123)</f>
+        <f t="shared" ref="G124:I124" si="72">SUM(G120:G123)</f>
         <v>217563</v>
       </c>
       <c r="H124" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>229176</v>
       </c>
       <c r="I124" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="J124" s="8" t="s">
         <v>150</v>
       </c>
       <c r="M124" s="3">
-        <f t="shared" ref="M124" si="66">SUM(M120:M123)</f>
+        <f t="shared" ref="M124" si="73">SUM(M120:M123)</f>
         <v>182218</v>
       </c>
       <c r="N124" s="3">
-        <f>SUM(F124:I124)</f>
+        <f t="shared" si="70"/>
         <v>624067</v>
       </c>
     </row>
@@ -5763,42 +5778,42 @@
         <v>814072</v>
       </c>
       <c r="C125" s="3">
-        <f t="shared" ref="C125:F125" si="67">C124+C119</f>
+        <f t="shared" ref="C125:F125" si="74">C124+C119</f>
         <v>920334</v>
       </c>
       <c r="D125" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="74"/>
         <v>1023905</v>
       </c>
       <c r="E125" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="74"/>
         <v>1334619</v>
       </c>
       <c r="F125" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="74"/>
         <v>1425066</v>
       </c>
       <c r="G125" s="3">
-        <f t="shared" ref="G125:I125" si="68">G124+G119</f>
+        <f t="shared" ref="G125:I125" si="75">G124+G119</f>
         <v>1560983</v>
       </c>
       <c r="H125" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="75"/>
         <v>1441203</v>
       </c>
       <c r="I125" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="J125" s="8" t="s">
         <v>150</v>
       </c>
       <c r="M125" s="3">
-        <f t="shared" ref="M125" si="69">M124+M119</f>
+        <f t="shared" ref="M125" si="76">M124+M119</f>
         <v>1334619</v>
       </c>
       <c r="N125" s="3">
-        <f>SUM(F125:I125)</f>
+        <f t="shared" si="70"/>
         <v>4427252</v>
       </c>
     </row>
@@ -5832,11 +5847,11 @@
         <v>150</v>
       </c>
       <c r="M126" s="2">
-        <f t="shared" ref="M126:M128" si="70">E126</f>
+        <f t="shared" ref="M126:M128" si="77">E126</f>
         <v>258657</v>
       </c>
       <c r="N126" s="2">
-        <f>SUM(F126:I126)</f>
+        <f t="shared" si="70"/>
         <v>779622</v>
       </c>
     </row>
@@ -5870,11 +5885,11 @@
         <v>150</v>
       </c>
       <c r="M127" s="2">
+        <f t="shared" si="77"/>
+        <v>397225</v>
+      </c>
+      <c r="N127" s="2">
         <f t="shared" si="70"/>
-        <v>397225</v>
-      </c>
-      <c r="N127" s="2">
-        <f>SUM(F127:I127)</f>
         <v>1213103</v>
       </c>
     </row>
@@ -5908,11 +5923,11 @@
         <v>150</v>
       </c>
       <c r="M128" s="2">
+        <f t="shared" si="77"/>
+        <v>1760</v>
+      </c>
+      <c r="N128" s="2">
         <f t="shared" si="70"/>
-        <v>1760</v>
-      </c>
-      <c r="N128" s="2">
-        <f>SUM(F128:I128)</f>
         <v>-2358</v>
       </c>
     </row>
@@ -5925,42 +5940,42 @@
         <v>564033</v>
       </c>
       <c r="C129" s="3">
-        <f t="shared" ref="C129:F129" si="71">SUM(C126:C128)</f>
+        <f t="shared" ref="C129:F129" si="78">SUM(C126:C128)</f>
         <v>596681</v>
       </c>
       <c r="D129" s="3">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>625833</v>
       </c>
       <c r="E129" s="3">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>657642</v>
       </c>
       <c r="F129" s="3">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>662601</v>
       </c>
       <c r="G129" s="3">
-        <f t="shared" ref="G129:I129" si="72">SUM(G126:G128)</f>
+        <f t="shared" ref="G129:I129" si="79">SUM(G126:G128)</f>
         <v>659566</v>
       </c>
       <c r="H129" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="79"/>
         <v>668200</v>
       </c>
       <c r="I129" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="J129" s="8" t="s">
         <v>150</v>
       </c>
       <c r="M129" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>2444189</v>
       </c>
       <c r="N129" s="3">
-        <f>SUM(F129:I129)</f>
+        <f t="shared" si="70"/>
         <v>1990367</v>
       </c>
     </row>
@@ -5973,42 +5988,42 @@
         <v>1378105</v>
       </c>
       <c r="C130" s="3">
-        <f t="shared" ref="C130:F130" si="73">C129+C125</f>
+        <f t="shared" ref="C130:F130" si="80">C129+C125</f>
         <v>1517015</v>
       </c>
       <c r="D130" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>1649738</v>
       </c>
       <c r="E130" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>1992261</v>
       </c>
       <c r="F130" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>2087667</v>
       </c>
       <c r="G130" s="3">
-        <f t="shared" ref="G130:I130" si="74">G129+G125</f>
+        <f t="shared" ref="G130:I130" si="81">G129+G125</f>
         <v>2220549</v>
       </c>
       <c r="H130" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="81"/>
         <v>2109403</v>
       </c>
       <c r="I130" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="J130" s="8" t="s">
         <v>150</v>
       </c>
       <c r="M130" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>6537119</v>
       </c>
       <c r="N130" s="3">
-        <f>SUM(F130:I130)</f>
+        <f t="shared" si="70"/>
         <v>6417619</v>
       </c>
     </row>
@@ -6026,38 +6041,38 @@
         <v>411204</v>
       </c>
       <c r="C132" s="3">
-        <f t="shared" ref="C132:F132" si="75">C101-C113</f>
+        <f t="shared" ref="C132:F132" si="82">C101-C113</f>
         <v>383699</v>
       </c>
       <c r="D132" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="82"/>
         <v>365478</v>
       </c>
       <c r="E132" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="82"/>
         <v>409184</v>
       </c>
       <c r="F132" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="82"/>
         <v>404763</v>
       </c>
       <c r="G132" s="3">
-        <f t="shared" ref="G132:I132" si="76">G101-G113</f>
+        <f t="shared" ref="G132:I132" si="83">G101-G113</f>
         <v>359318</v>
       </c>
       <c r="H132" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="83"/>
         <v>364867</v>
       </c>
       <c r="I132" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="J132" s="8" t="s">
         <v>150</v>
       </c>
       <c r="M132" s="3">
-        <f t="shared" ref="M132" si="77">M101-M113</f>
+        <f t="shared" ref="M132" si="84">M101-M113</f>
         <v>409184</v>
       </c>
       <c r="N132" s="3">
@@ -6074,38 +6089,38 @@
         <v>1.9283305113443956</v>
       </c>
       <c r="C133" s="6">
-        <f t="shared" ref="C133:F133" si="78">C101/C113</f>
+        <f t="shared" ref="C133:F133" si="85">C101/C113</f>
         <v>1.6440842129293907</v>
       </c>
       <c r="D133" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="85"/>
         <v>1.5179603463669733</v>
       </c>
       <c r="E133" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="85"/>
         <v>1.4577790805127506</v>
       </c>
       <c r="F133" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="85"/>
         <v>1.3948911169669433</v>
       </c>
       <c r="G133" s="6">
-        <f t="shared" ref="G133:I133" si="79">G101/G113</f>
+        <f t="shared" ref="G133:I133" si="86">G101/G113</f>
         <v>1.3075194276128856</v>
       </c>
       <c r="H133" s="6">
-        <f t="shared" si="79"/>
+        <f t="shared" si="86"/>
         <v>1.3480821315352391</v>
       </c>
       <c r="I133" s="6" t="e">
-        <f t="shared" si="79"/>
+        <f t="shared" si="86"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J133" s="8" t="s">
         <v>150</v>
       </c>
       <c r="M133" s="6">
-        <f t="shared" ref="M133" si="80">M101/M113</f>
+        <f t="shared" ref="M133" si="87">M101/M113</f>
         <v>1.4577790805127506</v>
       </c>
       <c r="N133" s="6" t="e">

--- a/TITN.xlsx
+++ b/TITN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B5BBB4-3010-4A39-9C8B-242326B6349F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEFC4A9-11A7-4ED7-B908-E4B835D50FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20330" yWindow="4290" windowWidth="16820" windowHeight="15370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="152">
   <si>
     <t>Headquarters: West Fargo, ND</t>
   </si>
@@ -514,6 +514,9 @@
   </si>
   <si>
     <t>xxx</t>
+  </si>
+  <si>
+    <t>Price</t>
   </si>
 </sst>
 </file>
@@ -584,7 +587,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -602,6 +605,7 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="39" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -882,35 +886,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D22"/>
+  <dimension ref="B2:M22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="K3" t="s">
+        <v>151</v>
+      </c>
+      <c r="L3">
+        <v>19.61</v>
+      </c>
+      <c r="M3" s="15">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>121</v>
       </c>
@@ -918,7 +931,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
         <v>122</v>
       </c>
@@ -926,22 +939,22 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
         <v>133</v>
       </c>
@@ -985,7 +998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E62E55-EE98-42B1-BA00-A4CA99681EFD}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
